--- a/ParametricGraph/bench4s.xlsx
+++ b/ParametricGraph/bench4s.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Прибор 1</t>
   </si>
@@ -64,6 +64,9 @@
 minima at f x ( ) 24.1568155 *   in the search domain x i i ∈ − = [ 10, 10], 1, 2. This
 function is given as:</t>
     </r>
+  </si>
+  <si>
+    <t>Максимизация</t>
   </si>
 </sst>
 </file>
@@ -411,7 +414,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -436,6 +439,9 @@
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
       <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
@@ -462,6 +468,9 @@
       <c r="B2">
         <f>21*21</f>
         <v>441</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="J2">
         <v>10</v>
